--- a/biology/Médecine/1968_en_santé_et_médecine/1968_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1968_en_santé_et_médecine/1968_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1968_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1968_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1968 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1968_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1968_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>28 avril : en France, une transplantation cardiaque est tentée pour la première fois.
-16 août : l’OMS lance une alerte pandémique mondiale (grippe de Hong Kong)[1].
+16 août : l’OMS lance une alerte pandémique mondiale (grippe de Hong Kong).
 Frederick Sanger utilise du phosphore radioactif comme traceur pour déchiffrer une séquence d’acide ribonucléique (ARN) de 120 bases par chromatographie.</t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1968_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1968_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Médaille Copley : Tadeusz Reichstein (1897-1996), pour ses recherches sur la chimie de la vitamine C et sur les corticostéroïdes[2].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Médaille Copley : Tadeusz Reichstein (1897-1996), pour ses recherches sur la chimie de la vitamine C et sur les corticostéroïdes.</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1968_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1968_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -581,7 +599,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1968_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1968_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -599,7 +617,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>23 juillet : Henry Hallett Dale (né en 1875), prix Nobel de physiologie ou médecine en 1936 avec Otto Loewi (1873-1961).</t>
         </is>
